--- a/public/download/template.xlsx
+++ b/public/download/template.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Telecorp ThinkPad01\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gggg\public\download\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD8834FA-F493-4A84-9E97-0965D5B9006A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9876227F-EC0A-4AFD-8230-8EA29400E318}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{AEBF2509-4712-4824-A99F-07C62D40648A}"/>
   </bookViews>
@@ -464,10 +464,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EF30083-33A3-45AB-9B31-0A4A82FCA9AF}">
-  <dimension ref="A2:O11"/>
+  <dimension ref="A2:O8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -516,44 +516,6 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3">
-        <v>3</v>
-      </c>
-      <c r="D3">
-        <v>4</v>
-      </c>
-      <c r="E3">
-        <v>5</v>
-      </c>
-      <c r="F3">
-        <v>6</v>
-      </c>
-      <c r="G3">
-        <v>7</v>
-      </c>
-      <c r="K3">
-        <v>8</v>
-      </c>
-      <c r="L3">
-        <v>9</v>
-      </c>
-      <c r="M3">
-        <v>10</v>
-      </c>
-      <c r="N3">
-        <v>11</v>
-      </c>
-      <c r="O3">
-        <v>12</v>
-      </c>
-    </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>10</v>
@@ -587,111 +549,6 @@
       </c>
       <c r="K8" s="1" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>23</v>
-      </c>
-      <c r="B9">
-        <v>13</v>
-      </c>
-      <c r="C9">
-        <v>14</v>
-      </c>
-      <c r="D9">
-        <v>15</v>
-      </c>
-      <c r="E9">
-        <v>16</v>
-      </c>
-      <c r="F9">
-        <v>17</v>
-      </c>
-      <c r="G9">
-        <v>18</v>
-      </c>
-      <c r="H9">
-        <v>19</v>
-      </c>
-      <c r="I9">
-        <v>20</v>
-      </c>
-      <c r="J9">
-        <v>21</v>
-      </c>
-      <c r="K9">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>24</v>
-      </c>
-      <c r="B10">
-        <v>13</v>
-      </c>
-      <c r="C10">
-        <v>14</v>
-      </c>
-      <c r="D10">
-        <v>15</v>
-      </c>
-      <c r="E10">
-        <v>16</v>
-      </c>
-      <c r="F10">
-        <v>17</v>
-      </c>
-      <c r="G10">
-        <v>18</v>
-      </c>
-      <c r="H10">
-        <v>19</v>
-      </c>
-      <c r="I10">
-        <v>20</v>
-      </c>
-      <c r="J10">
-        <v>21</v>
-      </c>
-      <c r="K10">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>26</v>
-      </c>
-      <c r="B11">
-        <v>133</v>
-      </c>
-      <c r="C11">
-        <v>3333</v>
-      </c>
-      <c r="D11">
-        <v>333</v>
-      </c>
-      <c r="E11">
-        <v>3333</v>
-      </c>
-      <c r="F11">
-        <v>333</v>
-      </c>
-      <c r="G11">
-        <v>3</v>
-      </c>
-      <c r="H11">
-        <v>3</v>
-      </c>
-      <c r="I11">
-        <v>3</v>
-      </c>
-      <c r="J11">
-        <v>3</v>
-      </c>
-      <c r="K11">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
